--- a/results/soae/SOAE Results (PW=False, BW=Species, Static Flattop)/SOAE N_xi Fitted Parameters (PW=False, BW=Species, Static Flattop).xlsx
+++ b/results/soae/SOAE Results (PW=False, BW=Species, Static Flattop)/SOAE N_xi Fitted Parameters (PW=False, BW=Species, Static Flattop).xlsx
@@ -518,7 +518,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Anole</t>
+          <t>Tokay</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -526,53 +526,53 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AC6rearSOAEwfB1.mat</t>
+          <t>tokay_GG1rearSOAEwf.mat</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1235.467529296875</v>
+        <v>1342.7734375</v>
       </c>
       <c r="E2" t="n">
-        <v>16.27045348324553</v>
+        <v>4.460025553747603</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1604725269936995</v>
+        <v>0.2083667218300633</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01316947074481619</v>
+        <v>0.003321502666936397</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001298880975730921</v>
+        <v>0.0001551763804756254</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9985519516693381</v>
+        <v>1.423530552657516</v>
       </c>
       <c r="J2" t="n">
-        <v>0.007620958622036293</v>
+        <v>0.06219363852230954</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001611813450498767</v>
+        <v>0.0009635734659170579</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03099773242630385</v>
+        <v>0.008</v>
       </c>
       <c r="M2" t="n">
-        <v>38.29669189453125</v>
+        <v>10.7421875</v>
       </c>
       <c r="N2" t="n">
-        <v>13.49874031691002</v>
+        <v>42.43192224937608</v>
       </c>
       <c r="O2" t="n">
-        <v>5.701998066238218e-11</v>
+        <v>6.387922355298556e-11</v>
       </c>
       <c r="P2" t="n">
-        <v>1233.124453344375</v>
+        <v>1345.35643547757</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Anole</t>
+          <t>Tokay</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -580,53 +580,53 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AC6rearSOAEwfB1.mat</t>
+          <t>tokay_GG1rearSOAEwf.mat</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2153.3203125</v>
+        <v>1779.1748046875</v>
       </c>
       <c r="E3" t="n">
-        <v>19.32091238876069</v>
+        <v>8.448976852641636</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1191495762712399</v>
+        <v>0.1296501109855726</v>
       </c>
       <c r="G3" t="n">
-        <v>0.008972614188703376</v>
+        <v>0.004748817727398991</v>
       </c>
       <c r="H3" t="n">
-        <v>5.533295514818578e-05</v>
+        <v>7.287092344382921e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>1.138955073099183</v>
+        <v>1.239216578257107</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005973835603635176</v>
+        <v>0.01667045906770272</v>
       </c>
       <c r="K3" t="n">
-        <v>4.912864377187464e-05</v>
+        <v>0.0001916137841558003</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02299319727891156</v>
+        <v>0.0135</v>
       </c>
       <c r="M3" t="n">
-        <v>49.51171875</v>
+        <v>24.01885986328125</v>
       </c>
       <c r="N3" t="n">
-        <v>17.4228878035034</v>
+        <v>29.40023479776275</v>
       </c>
       <c r="O3" t="n">
-        <v>5.486692993972195e-11</v>
+        <v>9.618238651727223e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>2155.309038931057</v>
+        <v>1782.520741488091</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Anole</t>
+          <t>Tokay</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -634,53 +634,53 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AC6rearSOAEwfB1.mat</t>
+          <t>tokay_GG1rearSOAEwf.mat</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3703.7109375</v>
+        <v>3649.90234375</v>
       </c>
       <c r="E4" t="n">
-        <v>31.46322969314967</v>
+        <v>12.83125968722967</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1427470844557601</v>
+        <v>0.5629645986041236</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008495055425245283</v>
+        <v>0.003515507670828946</v>
       </c>
       <c r="H4" t="n">
-        <v>3.854163752641942e-05</v>
+        <v>0.0001542410030690629</v>
       </c>
       <c r="I4" t="n">
-        <v>1.206275863016083</v>
+        <v>1.396707260296086</v>
       </c>
       <c r="J4" t="n">
-        <v>0.004677101758986906</v>
+        <v>0.05635726268570131</v>
       </c>
       <c r="K4" t="n">
-        <v>2.622069975168253e-05</v>
+        <v>0.0009325137695151844</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02099773242630385</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>77.76953125</v>
+        <v>31.024169921875</v>
       </c>
       <c r="N4" t="n">
-        <v>18.5501801752043</v>
+        <v>38.0453005907239</v>
       </c>
       <c r="O4" t="n">
-        <v>2.457713479874036e-10</v>
+        <v>3.567629700403809e-11</v>
       </c>
       <c r="P4" t="n">
-        <v>3704.379755594088</v>
+        <v>3644.343499219396</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Anole</t>
+          <t>Tokay</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -688,53 +688,53 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AC6rearSOAEwfB1.mat</t>
+          <t>tokay_GG1rearSOAEwf.mat</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4500.439453125</v>
+        <v>4211.425781249999</v>
       </c>
       <c r="E5" t="n">
-        <v>18.73891316765203</v>
+        <v>29.45316993193493</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5111525313559319</v>
+        <v>1.068493130930639</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004163796305411945</v>
+        <v>0.006993633857461188</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0001135783597757324</v>
+        <v>0.0002537129196690955</v>
       </c>
       <c r="I5" t="n">
-        <v>1.331207539183221</v>
+        <v>1.054240455752225</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03210092064674847</v>
+        <v>0.03288075129920257</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0004891674757343065</v>
+        <v>0.00117551605348218</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01049886621315193</v>
+        <v>0.019</v>
       </c>
       <c r="M5" t="n">
-        <v>47.24951171875</v>
+        <v>80.01708984374999</v>
       </c>
       <c r="N5" t="n">
-        <v>34.66239683732749</v>
+        <v>23.25321642635075</v>
       </c>
       <c r="O5" t="n">
-        <v>1.357314261232701e-11</v>
+        <v>4.348084875991019e-11</v>
       </c>
       <c r="P5" t="n">
-        <v>4501.005395273555</v>
+        <v>4210.535049636132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Anole</t>
+          <t>Tokay</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -742,53 +742,53 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ACsb4rearSOAEwf1.mat</t>
+          <t>tokay_GG2rearSOAEwf.mat</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>966.302490234375</v>
+        <v>1364.1357421875</v>
       </c>
       <c r="E6" t="n">
-        <v>6.137620528466492</v>
+        <v>4.324112552004121</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1872804185843038</v>
+        <v>0.1804466842198701</v>
       </c>
       <c r="G6" t="n">
-        <v>0.006351655501765107</v>
+        <v>0.003169855035885259</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0001938113794355215</v>
+        <v>0.000132279126365027</v>
       </c>
       <c r="I6" t="n">
-        <v>1.072079156092322</v>
+        <v>1.406366121009048</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02693463093490572</v>
+        <v>0.05546019479220759</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0009077351656215396</v>
+        <v>0.0006551646695073318</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01800453514739229</v>
+        <v>0.0075</v>
       </c>
       <c r="M6" t="n">
-        <v>17.3978271484375</v>
+        <v>10.23101806640625</v>
       </c>
       <c r="N6" t="n">
-        <v>23.64426939454631</v>
+        <v>42.52731823436151</v>
       </c>
       <c r="O6" t="n">
-        <v>4.166610049075284e-11</v>
+        <v>3.407190040037541e-11</v>
       </c>
       <c r="P6" t="n">
-        <v>966.55485068773</v>
+        <v>1361.167622259814</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Anole</t>
+          <t>Tokay</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -796,53 +796,53 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ACsb4rearSOAEwf1.mat</t>
+          <t>tokay_GG2rearSOAEwf.mat</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3022.723388671875</v>
+        <v>1776.123046875</v>
       </c>
       <c r="E7" t="n">
-        <v>10.73828304736731</v>
+        <v>5.771388687597842</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6264526162404236</v>
+        <v>0.2101942134629494</v>
       </c>
       <c r="G7" t="n">
-        <v>0.003552519257174074</v>
+        <v>0.003249430661773301</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0002072477483676316</v>
+        <v>0.0001183443983978338</v>
       </c>
       <c r="I7" t="n">
-        <v>1.213076971725806</v>
+        <v>1.412328663391503</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06904941171546593</v>
+        <v>0.04939513644597964</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001860346665208865</v>
+        <v>0.0006169226326571957</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01299319727891157</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="M7" t="n">
-        <v>39.27484130859375</v>
+        <v>15.0970458984375</v>
       </c>
       <c r="N7" t="n">
-        <v>37.50996729651273</v>
+        <v>39.7329860750773</v>
       </c>
       <c r="O7" t="n">
-        <v>6.882964472826868e-11</v>
+        <v>4.203383502861764e-11</v>
       </c>
       <c r="P7" t="n">
-        <v>3028.626325285753</v>
+        <v>1777.13636546578</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Anole</t>
+          <t>Tokay</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -850,53 +850,53 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ACsb4rearSOAEwf1.mat</t>
+          <t>tokay_GG2rearSOAEwf.mat</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3151.922607421875</v>
+        <v>3607.177734375</v>
       </c>
       <c r="E8" t="n">
-        <v>20.46677603291103</v>
+        <v>19.88328931692195</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2005660799087317</v>
+        <v>0.2461295240289038</v>
       </c>
       <c r="G8" t="n">
-        <v>0.006493425944126177</v>
+        <v>0.005512145721970378</v>
       </c>
       <c r="H8" t="n">
-        <v>6.363293293955125e-05</v>
+        <v>6.823326771048325e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>1.243291384815935</v>
+        <v>1.246398345349658</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01051288534168879</v>
+        <v>0.01417945958124356</v>
       </c>
       <c r="K8" t="n">
-        <v>9.893151436961653e-05</v>
+        <v>0.0001301261287241322</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01650793650793651</v>
+        <v>0.0155</v>
       </c>
       <c r="M8" t="n">
-        <v>52.03173828125001</v>
+        <v>55.91125488281249</v>
       </c>
       <c r="N8" t="n">
-        <v>23.2635660706599</v>
+        <v>25.36364828994446</v>
       </c>
       <c r="O8" t="n">
-        <v>3.176311143956635e-10</v>
+        <v>7.60903197647116e-11</v>
       </c>
       <c r="P8" t="n">
-        <v>3152.610821201952</v>
+        <v>3604.698157424685</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Anole</t>
+          <t>Tokay</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -904,53 +904,53 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ACsb4rearSOAEwf1.mat</t>
+          <t>tokay_GG2rearSOAEwf.mat</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3954.034423828125</v>
+        <v>4394.531249999999</v>
       </c>
       <c r="E9" t="n">
-        <v>15.53825647486</v>
+        <v>15.63666789306943</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5098892675341249</v>
+        <v>0.6139322808409924</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003929722103890167</v>
+        <v>0.003558210649445134</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0001289541801814846</v>
+        <v>0.0001397037012402614</v>
       </c>
       <c r="I9" t="n">
-        <v>1.460311260664919</v>
+        <v>1.371835470709829</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04805708251155821</v>
+        <v>0.04920085661051307</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0005595649156774294</v>
+        <v>0.0007264618189268275</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="M9" t="n">
-        <v>39.54034423828125</v>
+        <v>37.35351562499999</v>
       </c>
       <c r="N9" t="n">
-        <v>33.94081083081656</v>
+        <v>39.00656358010245</v>
       </c>
       <c r="O9" t="n">
-        <v>9.783328709239504e-11</v>
+        <v>1.972760643713383e-11</v>
       </c>
       <c r="P9" t="n">
-        <v>3945.227870712746</v>
+        <v>4390.435377240718</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Anole</t>
+          <t>Tokay</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -958,53 +958,53 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ACsb24rearSOAEwfA1.mat</t>
+          <t>tokay_GG3rearSOAEwf.mat</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1811.480712890625</v>
+        <v>1257.32421875</v>
       </c>
       <c r="E10" t="n">
-        <v>29.52024959362215</v>
+        <v>6.159950049409389</v>
       </c>
       <c r="F10" t="n">
-        <v>2.060378082277679</v>
+        <v>0.2030486871761092</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01629619867523511</v>
+        <v>0.004899253476190459</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001137399955525821</v>
+        <v>0.0001614927034317172</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2163530574655104</v>
+        <v>1.177873109107223</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02005055343144353</v>
+        <v>0.03442875031901588</v>
       </c>
       <c r="K10" t="n">
-        <v>8.616871130929551e-05</v>
+        <v>0.0009265966075376635</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04</v>
+        <v>0.016</v>
       </c>
       <c r="M10" t="n">
-        <v>72.459228515625</v>
+        <v>20.1171875</v>
       </c>
       <c r="N10" t="n">
-        <v>47.20527813440874</v>
+        <v>26.82594700506083</v>
       </c>
       <c r="O10" t="n">
-        <v>2.728374981284834e-11</v>
+        <v>5.362201724144603e-11</v>
       </c>
       <c r="P10" t="n">
-        <v>1801.595382692145</v>
+        <v>1256.960007381276</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Anole</t>
+          <t>Tokay</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1012,53 +1012,53 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ACsb24rearSOAEwfA1.mat</t>
+          <t>tokay_GG3rearSOAEwf.mat</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2177.545166015625</v>
+        <v>1837.158203125</v>
       </c>
       <c r="E11" t="n">
-        <v>23.87533611430924</v>
+        <v>5.454804620331305</v>
       </c>
       <c r="F11" t="n">
-        <v>0.199603620443464</v>
+        <v>0.3022607368537311</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01096433565968014</v>
+        <v>0.002969153451810901</v>
       </c>
       <c r="H11" t="n">
-        <v>9.166451449945803e-05</v>
+        <v>0.0001645262429439047</v>
       </c>
       <c r="I11" t="n">
-        <v>1.229145680085068</v>
+        <v>1.462355788436553</v>
       </c>
       <c r="J11" t="n">
-        <v>0.008954135430953924</v>
+        <v>0.0782078009490524</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001070512298754903</v>
+        <v>0.001060205099203275</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02600907029478458</v>
+        <v>0.007</v>
       </c>
       <c r="M11" t="n">
-        <v>56.63592529296875</v>
+        <v>12.860107421875</v>
       </c>
       <c r="N11" t="n">
-        <v>14.17292855092692</v>
+        <v>44.89910219652642</v>
       </c>
       <c r="O11" t="n">
-        <v>1.939760310133725e-10</v>
+        <v>3.238278432155652e-11</v>
       </c>
       <c r="P11" t="n">
-        <v>2175.140023101672</v>
+        <v>1839.357708970227</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Anole</t>
+          <t>Tokay</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1066,53 +1066,53 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ACsb24rearSOAEwfA1.mat</t>
+          <t>tokay_GG3rearSOAEwf.mat</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3111.5478515625</v>
+        <v>2578.7353515625</v>
       </c>
       <c r="E12" t="n">
-        <v>18.1369995145824</v>
+        <v>7.628241318316572</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2432247810841414</v>
+        <v>0.4484300526328838</v>
       </c>
       <c r="G12" t="n">
-        <v>0.005828931573549382</v>
+        <v>0.002958132680693461</v>
       </c>
       <c r="H12" t="n">
-        <v>7.816842056984703e-05</v>
+        <v>0.0001738953368600514</v>
       </c>
       <c r="I12" t="n">
-        <v>1.360869933351719</v>
+        <v>1.470670867844325</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01761179210471739</v>
+        <v>0.08363272398763569</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0001563171901731081</v>
+        <v>0.001203545420941607</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01551020408163265</v>
+        <v>0.007</v>
       </c>
       <c r="M12" t="n">
-        <v>48.2607421875</v>
+        <v>18.0511474609375</v>
       </c>
       <c r="N12" t="n">
-        <v>24.04997435018094</v>
+        <v>43.5534635931605</v>
       </c>
       <c r="O12" t="n">
-        <v>1.421525365522831e-10</v>
+        <v>1.750986941562969e-11</v>
       </c>
       <c r="P12" t="n">
-        <v>3112.790751149034</v>
+        <v>2573.086521837186</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Anole</t>
+          <t>Tokay</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1120,53 +1120,53 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ACsb24rearSOAEwfA1.mat</t>
+          <t>tokay_GG3rearSOAEwf.mat</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3477.6123046875</v>
+        <v>3567.5048828125</v>
       </c>
       <c r="E13" t="n">
-        <v>21.11625766221708</v>
+        <v>16.97342499260922</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3180059870534072</v>
+        <v>0.1965609959724034</v>
       </c>
       <c r="G13" t="n">
-        <v>0.006072056288090055</v>
+        <v>0.004757786057808547</v>
       </c>
       <c r="H13" t="n">
-        <v>9.144377210328032e-05</v>
+        <v>5.509761091551509e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>1.279115198918998</v>
+        <v>1.28980127584304</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01665715461241262</v>
+        <v>0.01426855130046424</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0002044789298814027</v>
+        <v>8.938702772880043e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01448979591836735</v>
+        <v>0.013</v>
       </c>
       <c r="M13" t="n">
-        <v>50.389892578125</v>
+        <v>46.37756347656249</v>
       </c>
       <c r="N13" t="n">
-        <v>24.36015673799121</v>
+        <v>28.65389346138159</v>
       </c>
       <c r="O13" t="n">
-        <v>1.028995778531184e-10</v>
+        <v>3.512408565127503e-11</v>
       </c>
       <c r="P13" t="n">
-        <v>3477.954975752495</v>
+        <v>3559.281782220796</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Anole</t>
+          <t>Tokay</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1174,53 +1174,53 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ACsb30learSOAEwfA2.mat</t>
+          <t>tokay_GG4rearSOAEwf.mat</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1798.0224609375</v>
+        <v>1251.220703125</v>
       </c>
       <c r="E14" t="n">
-        <v>10.83138782180633</v>
+        <v>6.968943536799011</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1189343580154598</v>
+        <v>0.2097396321474185</v>
       </c>
       <c r="G14" t="n">
-        <v>0.006024055904262052</v>
+        <v>0.005569715653995854</v>
       </c>
       <c r="H14" t="n">
-        <v>6.614731495258778e-05</v>
+        <v>0.0001676280064928442</v>
       </c>
       <c r="I14" t="n">
-        <v>1.233487856175178</v>
+        <v>1.128208953686543</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01208949815066053</v>
+        <v>0.02890609544874574</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0001152929336444951</v>
+        <v>0.0008208035871424071</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01650793650793651</v>
+        <v>0.0165</v>
       </c>
       <c r="M14" t="n">
-        <v>29.681640625</v>
+        <v>20.6451416015625</v>
       </c>
       <c r="N14" t="n">
-        <v>23.42245472006664</v>
+        <v>24.71837056218591</v>
       </c>
       <c r="O14" t="n">
-        <v>3.539291193544394e-11</v>
+        <v>7.686499052157489e-11</v>
       </c>
       <c r="P14" t="n">
-        <v>1793.19663419541</v>
+        <v>1251.205006488157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Anole</t>
+          <t>Tokay</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1228,53 +1228,53 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ACsb30learSOAEwfA2.mat</t>
+          <t>tokay_GG4rearSOAEwf.mat</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2139.862060546875</v>
+        <v>2590.9423828125</v>
       </c>
       <c r="E15" t="n">
-        <v>7.383225339650395</v>
+        <v>10.98963182361519</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3977289205921791</v>
+        <v>0.3092448683018977</v>
       </c>
       <c r="G15" t="n">
-        <v>0.003450327699049675</v>
+        <v>0.004241557780874234</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0001858666163231724</v>
+        <v>0.0001193561347999598</v>
       </c>
       <c r="I15" t="n">
-        <v>1.418070862340206</v>
+        <v>1.32768769695136</v>
       </c>
       <c r="J15" t="n">
-        <v>0.06976038352038443</v>
+        <v>0.03276803607911022</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001307088889552022</v>
+        <v>0.0005233411782563589</v>
       </c>
       <c r="L15" t="n">
-        <v>0.008004535147392289</v>
+        <v>0.0105</v>
       </c>
       <c r="M15" t="n">
-        <v>17.12860107421875</v>
+        <v>27.20489501953125</v>
       </c>
       <c r="N15" t="n">
-        <v>41.13536799564929</v>
+        <v>31.39880304265806</v>
       </c>
       <c r="O15" t="n">
-        <v>7.102693742763213e-12</v>
+        <v>4.100477372317999e-11</v>
       </c>
       <c r="P15" t="n">
-        <v>2141.206698806877</v>
+        <v>2591.363959375077</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Anole</t>
+          <t>Tokay</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1282,53 +1282,53 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ACsb30learSOAEwfA2.mat</t>
+          <t>tokay_GG4rearSOAEwf.mat</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2417.10205078125</v>
+        <v>3216.552734375</v>
       </c>
       <c r="E16" t="n">
-        <v>7.685360244948903</v>
+        <v>10.18586891539348</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4288062054925163</v>
+        <v>0.5054175690872295</v>
       </c>
       <c r="G16" t="n">
-        <v>0.003179576237778152</v>
+        <v>0.003166703535290452</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0001774050894350607</v>
+        <v>0.0001571301983287508</v>
       </c>
       <c r="I16" t="n">
-        <v>1.44421366723964</v>
+        <v>1.439482130378261</v>
       </c>
       <c r="J16" t="n">
-        <v>0.07587432245996721</v>
+        <v>0.06753790519768502</v>
       </c>
       <c r="K16" t="n">
-        <v>0.00123986853948281</v>
+        <v>0.0009697510280074862</v>
       </c>
       <c r="L16" t="n">
-        <v>0.007505668934240363</v>
+        <v>0.0075</v>
       </c>
       <c r="M16" t="n">
-        <v>18.1419677734375</v>
+        <v>24.1241455078125</v>
       </c>
       <c r="N16" t="n">
-        <v>42.50273593021302</v>
+        <v>40.44577822285396</v>
       </c>
       <c r="O16" t="n">
-        <v>5.782920652556695e-12</v>
+        <v>1.151139691059027e-11</v>
       </c>
       <c r="P16" t="n">
-        <v>2413.916814391103</v>
+        <v>3220.120349829717</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Anole</t>
+          <t>Tokay</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1336,53 +1336,53 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ACsb30learSOAEwfA2.mat</t>
+          <t>tokay_GG4rearSOAEwf.mat</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2783.16650390625</v>
+        <v>3582.763671875</v>
       </c>
       <c r="E17" t="n">
-        <v>222580056.6111855</v>
+        <v>14.31809874100298</v>
       </c>
       <c r="F17" t="n">
-        <v>212851825869879.1</v>
+        <v>0.4232403169228528</v>
       </c>
       <c r="G17" t="n">
-        <v>79973.67613428384</v>
+        <v>0.003996383812139571</v>
       </c>
       <c r="H17" t="n">
-        <v>76478293904.13248</v>
+        <v>0.0001181323569414654</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01931650088908909</v>
+        <v>1.348669525122197</v>
       </c>
       <c r="J17" t="n">
-        <v>0.004113185546243618</v>
+        <v>0.03562087547215192</v>
       </c>
       <c r="K17" t="n">
-        <v>2.729313132736339e-05</v>
+        <v>0.0005381260333174574</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02498866213151927</v>
+        <v>0.01</v>
       </c>
       <c r="M17" t="n">
-        <v>69.547607421875</v>
+        <v>35.82763671874999</v>
       </c>
       <c r="N17" t="n">
-        <v>46.28212381639919</v>
+        <v>33.66392465289412</v>
       </c>
       <c r="O17" t="n">
-        <v>7.179066528684823e-12</v>
+        <v>3.862470882993179e-11</v>
       </c>
       <c r="P17" t="n">
-        <v>2784.485016813617</v>
+        <v>3583.640453835764</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Owl</t>
+          <t>Anole</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1390,53 +1390,53 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Owl2R1.mat</t>
+          <t>AC6rearSOAEwfB1.mat</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4350.5859375</v>
+        <v>1235.467529296875</v>
       </c>
       <c r="E18" t="n">
-        <v>6.200537234175052</v>
+        <v>16.27045348324553</v>
       </c>
       <c r="F18" t="n">
-        <v>0.503620119972046</v>
+        <v>0.1604725269936995</v>
       </c>
       <c r="G18" t="n">
-        <v>0.001425218883904658</v>
+        <v>0.01316947074481619</v>
       </c>
       <c r="H18" t="n">
-        <v>0.000115759147665853</v>
+        <v>0.0001298880975730921</v>
       </c>
       <c r="I18" t="n">
-        <v>1.556984711577556</v>
+        <v>0.9985519516693381</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1342492179820402</v>
+        <v>0.007620958622036293</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0006445582041643389</v>
+        <v>0.0001611813450498767</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0035</v>
+        <v>0.03099773242630385</v>
       </c>
       <c r="M18" t="n">
-        <v>15.22705078125</v>
+        <v>38.29669189453125</v>
       </c>
       <c r="N18" t="n">
-        <v>88.04686450596937</v>
+        <v>13.49874031691002</v>
       </c>
       <c r="O18" t="n">
-        <v>3.597180564459571e-13</v>
+        <v>5.701998066238218e-11</v>
       </c>
       <c r="P18" t="n">
-        <v>4346.828152195468</v>
+        <v>1233.124453344375</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Owl</t>
+          <t>Anole</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1444,53 +1444,53 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Owl2R1.mat</t>
+          <t>AC6rearSOAEwfB1.mat</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7453.125</v>
+        <v>2153.3203125</v>
       </c>
       <c r="E19" t="n">
-        <v>13.52609931227873</v>
+        <v>19.32091238876069</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3830227078285064</v>
+        <v>0.1191495762712399</v>
       </c>
       <c r="G19" t="n">
-        <v>0.001814822549236559</v>
+        <v>0.008972614188703376</v>
       </c>
       <c r="H19" t="n">
-        <v>5.139088742353127e-05</v>
+        <v>5.533295514818578e-05</v>
       </c>
       <c r="I19" t="n">
-        <v>1.387782360319679</v>
+        <v>1.138955073099183</v>
       </c>
       <c r="J19" t="n">
-        <v>0.03911632563287751</v>
+        <v>0.005973835603635176</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0001643147067307164</v>
+        <v>4.912864377187464e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005</v>
+        <v>0.02299319727891156</v>
       </c>
       <c r="M19" t="n">
-        <v>37.265625</v>
+        <v>49.51171875</v>
       </c>
       <c r="N19" t="n">
-        <v>67.85515544987975</v>
+        <v>17.4228878035034</v>
       </c>
       <c r="O19" t="n">
-        <v>1.26189758663374e-12</v>
+        <v>5.486692993972195e-11</v>
       </c>
       <c r="P19" t="n">
-        <v>7456.96221043282</v>
+        <v>2155.309038931057</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Owl</t>
+          <t>Anole</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1498,53 +1498,53 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Owl2R1.mat</t>
+          <t>AC6rearSOAEwfB1.mat</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8452.1484375</v>
+        <v>3703.7109375</v>
       </c>
       <c r="E20" t="n">
-        <v>17.85863955129348</v>
+        <v>31.46322969314967</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7019742548644242</v>
+        <v>0.1427470844557601</v>
       </c>
       <c r="G20" t="n">
-        <v>0.002112911253671233</v>
+        <v>0.008495055425245283</v>
       </c>
       <c r="H20" t="n">
-        <v>8.30527599053923e-05</v>
+        <v>3.854163752641942e-05</v>
       </c>
       <c r="I20" t="n">
-        <v>1.370490614141937</v>
+        <v>1.206275863016083</v>
       </c>
       <c r="J20" t="n">
-        <v>0.05037830177731586</v>
+        <v>0.004677101758986906</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0004109910990382773</v>
+        <v>2.622069975168253e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0055</v>
+        <v>0.02099773242630385</v>
       </c>
       <c r="M20" t="n">
-        <v>46.48681640625</v>
+        <v>77.76953125</v>
       </c>
       <c r="N20" t="n">
-        <v>60.03149730150874</v>
+        <v>18.5501801752043</v>
       </c>
       <c r="O20" t="n">
-        <v>3.555192550123271e-12</v>
+        <v>2.457713479874036e-10</v>
       </c>
       <c r="P20" t="n">
-        <v>8444.898188380446</v>
+        <v>3704.379755594088</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Owl</t>
+          <t>Anole</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1552,53 +1552,53 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Owl2R1.mat</t>
+          <t>AC6rearSOAEwfB1.mat</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>9026.3671875</v>
+        <v>4500.439453125</v>
       </c>
       <c r="E21" t="n">
-        <v>25.26965690636864</v>
+        <v>18.73891316765203</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4451316147322679</v>
+        <v>0.5111525313559319</v>
       </c>
       <c r="G21" t="n">
-        <v>0.002799537885115383</v>
+        <v>0.004163796305411945</v>
       </c>
       <c r="H21" t="n">
-        <v>4.931459195995264e-05</v>
+        <v>0.0001135783597757324</v>
       </c>
       <c r="I21" t="n">
-        <v>1.21040516136573</v>
+        <v>1.331207539183221</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01878987637047191</v>
+        <v>0.03210092064674847</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0001291071634474768</v>
+        <v>0.0004891674757343065</v>
       </c>
       <c r="L21" t="n">
-        <v>0.008</v>
+        <v>0.01049886621315193</v>
       </c>
       <c r="M21" t="n">
-        <v>72.2109375</v>
+        <v>47.24951171875</v>
       </c>
       <c r="N21" t="n">
-        <v>48.1155010115467</v>
+        <v>34.66239683732749</v>
       </c>
       <c r="O21" t="n">
-        <v>4.091123796662425e-12</v>
+        <v>1.357314261232701e-11</v>
       </c>
       <c r="P21" t="n">
-        <v>9030.619519845581</v>
+        <v>4501.005395273555</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Owl</t>
+          <t>Anole</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1606,53 +1606,53 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Owl7L1.mat</t>
+          <t>ACsb4rearSOAEwf1.mat</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6837.890625</v>
+        <v>966.302490234375</v>
       </c>
       <c r="E22" t="n">
-        <v>10.5977698983937</v>
+        <v>6.137620528466492</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6331896030148532</v>
+        <v>0.1872804185843038</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00154985952241576</v>
+        <v>0.006351655501765107</v>
       </c>
       <c r="H22" t="n">
-        <v>9.260013617355179e-05</v>
+        <v>0.0001938113794355215</v>
       </c>
       <c r="I22" t="n">
-        <v>1.489588780119523</v>
+        <v>1.072079156092322</v>
       </c>
       <c r="J22" t="n">
-        <v>0.09255996511278757</v>
+        <v>0.02693463093490572</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0004790623519389627</v>
+        <v>0.0009077351656215396</v>
       </c>
       <c r="L22" t="n">
-        <v>0.004</v>
+        <v>0.01800453514739229</v>
       </c>
       <c r="M22" t="n">
-        <v>27.3515625</v>
+        <v>17.3978271484375</v>
       </c>
       <c r="N22" t="n">
-        <v>77.00428622253314</v>
+        <v>23.64426939454631</v>
       </c>
       <c r="O22" t="n">
-        <v>7.722440708880625e-13</v>
+        <v>4.166610049075284e-11</v>
       </c>
       <c r="P22" t="n">
-        <v>6840.659444440797</v>
+        <v>966.55485068773</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Owl</t>
+          <t>Anole</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1660,53 +1660,53 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Owl7L1.mat</t>
+          <t>ACsb4rearSOAEwf1.mat</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>7901.3671875</v>
+        <v>3022.723388671875</v>
       </c>
       <c r="E23" t="n">
-        <v>19.12436303910451</v>
+        <v>10.73828304736731</v>
       </c>
       <c r="F23" t="n">
-        <v>1.032548472683028</v>
+        <v>0.6264526162404236</v>
       </c>
       <c r="G23" t="n">
-        <v>0.002420386571751701</v>
+        <v>0.003552519257174074</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0001306797226581906</v>
+        <v>0.0002072477483676316</v>
       </c>
       <c r="I23" t="n">
-        <v>1.174421851631025</v>
+        <v>1.213076971725806</v>
       </c>
       <c r="J23" t="n">
-        <v>0.05926269821551847</v>
+        <v>0.06904941171546593</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0009800467979355896</v>
+        <v>0.001860346665208865</v>
       </c>
       <c r="L23" t="n">
-        <v>0.008</v>
+        <v>0.01299319727891157</v>
       </c>
       <c r="M23" t="n">
-        <v>63.2109375</v>
+        <v>39.27484130859375</v>
       </c>
       <c r="N23" t="n">
-        <v>51.67437961669827</v>
+        <v>37.50996729651273</v>
       </c>
       <c r="O23" t="n">
-        <v>1.393890798981966e-12</v>
+        <v>6.882964472826868e-11</v>
       </c>
       <c r="P23" t="n">
-        <v>7901.211008017457</v>
+        <v>3028.626325285753</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Owl</t>
+          <t>Anole</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1714,53 +1714,53 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Owl7L1.mat</t>
+          <t>ACsb4rearSOAEwf1.mat</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>8835.9375</v>
+        <v>3151.922607421875</v>
       </c>
       <c r="E24" t="n">
-        <v>22.98015480698477</v>
+        <v>20.46677603291103</v>
       </c>
       <c r="F24" t="n">
-        <v>0.678522834599649</v>
+        <v>0.2005660799087317</v>
       </c>
       <c r="G24" t="n">
-        <v>0.002600760225724183</v>
+        <v>0.006493425944126177</v>
       </c>
       <c r="H24" t="n">
-        <v>7.679126686892579e-05</v>
+        <v>6.363293293955125e-05</v>
       </c>
       <c r="I24" t="n">
-        <v>1.215681358694547</v>
+        <v>1.243291384815935</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0326037303704333</v>
+        <v>0.01051288534168879</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0003405400154561213</v>
+        <v>9.893151436961653e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.008</v>
+        <v>0.01650793650793651</v>
       </c>
       <c r="M24" t="n">
-        <v>70.6875</v>
+        <v>52.03173828125001</v>
       </c>
       <c r="N24" t="n">
-        <v>49.4686715984015</v>
+        <v>23.2635660706599</v>
       </c>
       <c r="O24" t="n">
-        <v>2.577618012957903e-12</v>
+        <v>3.176311143956635e-10</v>
       </c>
       <c r="P24" t="n">
-        <v>8845.345193607762</v>
+        <v>3152.610821201952</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Owl</t>
+          <t>Anole</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1768,53 +1768,53 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Owl7L1.mat</t>
+          <t>ACsb4rearSOAEwf1.mat</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>9257.8125</v>
+        <v>3954.034423828125</v>
       </c>
       <c r="E25" t="n">
-        <v>57.96893269989882</v>
+        <v>15.53825647486</v>
       </c>
       <c r="F25" t="n">
-        <v>6.118874950467526</v>
+        <v>0.5098892675341249</v>
       </c>
       <c r="G25" t="n">
-        <v>0.006261623110200042</v>
+        <v>0.003929722103890167</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0006609417668015556</v>
+        <v>0.0001289541801814846</v>
       </c>
       <c r="I25" t="n">
-        <v>0.06859142883780221</v>
+        <v>1.460311260664919</v>
       </c>
       <c r="J25" t="n">
-        <v>0.009411778969351539</v>
+        <v>0.04805708251155821</v>
       </c>
       <c r="K25" t="n">
-        <v>6.093241765296857e-06</v>
+        <v>0.0005595649156774294</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0145</v>
+        <v>0.01</v>
       </c>
       <c r="M25" t="n">
-        <v>134.23828125</v>
+        <v>39.54034423828125</v>
       </c>
       <c r="N25" t="n">
-        <v>89.47811797763433</v>
+        <v>33.94081083081656</v>
       </c>
       <c r="O25" t="n">
-        <v>1.537070170817859e-12</v>
+        <v>9.783328709239504e-11</v>
       </c>
       <c r="P25" t="n">
-        <v>9253.719655990404</v>
+        <v>3945.227870712746</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Owl</t>
+          <t>Anole</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1822,53 +1822,53 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TAG6rearSOAEwf1.mat</t>
+          <t>ACsb24rearSOAEwfA1.mat</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5625.54931640625</v>
+        <v>1811.480712890625</v>
       </c>
       <c r="E26" t="n">
-        <v>13.7025908628672</v>
+        <v>29.52024959362215</v>
       </c>
       <c r="F26" t="n">
-        <v>1.23349974496892</v>
+        <v>2.060378082277679</v>
       </c>
       <c r="G26" t="n">
-        <v>0.002435778284425524</v>
+        <v>0.01629619867523511</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0002192674307149995</v>
+        <v>0.001137399955525821</v>
       </c>
       <c r="I26" t="n">
-        <v>1.123193040757176</v>
+        <v>0.2163530574655104</v>
       </c>
       <c r="J26" t="n">
-        <v>0.09542756147256611</v>
+        <v>0.02005055343144353</v>
       </c>
       <c r="K26" t="n">
-        <v>0.002768955551456496</v>
+        <v>8.616871130929551e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.009501133786848073</v>
+        <v>0.04</v>
       </c>
       <c r="M26" t="n">
-        <v>53.4490966796875</v>
+        <v>72.459228515625</v>
       </c>
       <c r="N26" t="n">
-        <v>55.63156172241037</v>
+        <v>47.20527813440874</v>
       </c>
       <c r="O26" t="n">
-        <v>1.588033309690506e-10</v>
+        <v>2.728374981284834e-11</v>
       </c>
       <c r="P26" t="n">
-        <v>5623.301707548723</v>
+        <v>1801.595382692145</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Owl</t>
+          <t>Anole</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1876,53 +1876,53 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>TAG6rearSOAEwf1.mat</t>
+          <t>ACsb24rearSOAEwfA1.mat</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>8096.484375</v>
+        <v>2177.545166015625</v>
       </c>
       <c r="E27" t="n">
-        <v>16.61126643733448</v>
+        <v>23.87533611430924</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3634184788855256</v>
+        <v>0.199603620443464</v>
       </c>
       <c r="G27" t="n">
-        <v>0.002051664113454734</v>
+        <v>0.01096433565968014</v>
       </c>
       <c r="H27" t="n">
-        <v>4.488596062850125e-05</v>
+        <v>9.166451449945803e-05</v>
       </c>
       <c r="I27" t="n">
-        <v>1.326748703747682</v>
+        <v>1.229145680085068</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0279915396108054</v>
+        <v>0.008954135430953924</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0001302866375262261</v>
+        <v>0.0001070512298754903</v>
       </c>
       <c r="L27" t="n">
-        <v>0.00600907029478458</v>
+        <v>0.02600907029478458</v>
       </c>
       <c r="M27" t="n">
-        <v>48.65234375</v>
+        <v>56.63592529296875</v>
       </c>
       <c r="N27" t="n">
-        <v>58.59552907829816</v>
+        <v>14.17292855092692</v>
       </c>
       <c r="O27" t="n">
-        <v>2.598374680921007e-10</v>
+        <v>1.939760310133725e-10</v>
       </c>
       <c r="P27" t="n">
-        <v>8098.389244124367</v>
+        <v>2175.140023101672</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Owl</t>
+          <t>Anole</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1930,53 +1930,53 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TAG6rearSOAEwf1.mat</t>
+          <t>ACsb24rearSOAEwfA1.mat</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>8489.46533203125</v>
+        <v>3111.5478515625</v>
       </c>
       <c r="E28" t="n">
-        <v>54.8932366315176</v>
+        <v>18.1369995145824</v>
       </c>
       <c r="F28" t="n">
-        <v>2.019460731392774</v>
+        <v>0.2432247810841414</v>
       </c>
       <c r="G28" t="n">
-        <v>0.006466041674544828</v>
+        <v>0.005828931573549382</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0002378784354973723</v>
+        <v>7.816842056984703e-05</v>
       </c>
       <c r="I28" t="n">
-        <v>0.842857790203811</v>
+        <v>1.360869933351719</v>
       </c>
       <c r="J28" t="n">
-        <v>0.02437092987453587</v>
+        <v>0.01761179210471739</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0006957767539891147</v>
+        <v>0.0001563171901731081</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01501133786848073</v>
+        <v>0.01551020408163265</v>
       </c>
       <c r="M28" t="n">
-        <v>127.438232421875</v>
+        <v>48.2607421875</v>
       </c>
       <c r="N28" t="n">
-        <v>24.65121885617466</v>
+        <v>24.04997435018094</v>
       </c>
       <c r="O28" t="n">
-        <v>7.426545525735238e-10</v>
+        <v>1.421525365522831e-10</v>
       </c>
       <c r="P28" t="n">
-        <v>8486.990976232802</v>
+        <v>3112.790751149034</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Owl</t>
+          <t>Anole</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1984,53 +1984,53 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TAG6rearSOAEwf1.mat</t>
+          <t>ACsb24rearSOAEwfA1.mat</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9864.898681640625</v>
+        <v>3477.6123046875</v>
       </c>
       <c r="E29" t="n">
-        <v>17.55744318502499</v>
+        <v>21.11625766221708</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7706878262572214</v>
+        <v>0.3180059870534072</v>
       </c>
       <c r="G29" t="n">
-        <v>0.001779789509414913</v>
+        <v>0.006072056288090055</v>
       </c>
       <c r="H29" t="n">
-        <v>7.812425156393484e-05</v>
+        <v>9.144377210328032e-05</v>
       </c>
       <c r="I29" t="n">
-        <v>1.430540075178475</v>
+        <v>1.279115198918998</v>
       </c>
       <c r="J29" t="n">
-        <v>0.06310040276667497</v>
+        <v>0.01665715461241262</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0004119904486747436</v>
+        <v>0.0002044789298814027</v>
       </c>
       <c r="L29" t="n">
-        <v>0.005011337868480726</v>
+        <v>0.01448979591836735</v>
       </c>
       <c r="M29" t="n">
-        <v>49.43634033203125</v>
+        <v>50.389892578125</v>
       </c>
       <c r="N29" t="n">
-        <v>64.04212616111205</v>
+        <v>24.36015673799121</v>
       </c>
       <c r="O29" t="n">
-        <v>1.931726648220092e-10</v>
+        <v>1.028995778531184e-10</v>
       </c>
       <c r="P29" t="n">
-        <v>9857.012236195154</v>
+        <v>3477.954975752495</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Owl</t>
+          <t>Anole</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2038,53 +2038,53 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>owl_TAG4learSOAEwf1.mat</t>
+          <t>ACsb30learSOAEwfA2.mat</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4944.561767578125</v>
+        <v>1798.0224609375</v>
       </c>
       <c r="E30" t="n">
-        <v>7.915838219591966</v>
+        <v>10.83138782180633</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3683099505358468</v>
+        <v>0.1189343580154598</v>
       </c>
       <c r="G30" t="n">
-        <v>0.001600918057389177</v>
+        <v>0.006024055904262052</v>
       </c>
       <c r="H30" t="n">
-        <v>7.448788544838973e-05</v>
+        <v>6.614731495258778e-05</v>
       </c>
       <c r="I30" t="n">
-        <v>1.484261017007512</v>
+        <v>1.233487856175178</v>
       </c>
       <c r="J30" t="n">
-        <v>0.07218371225140059</v>
+        <v>0.01208949815066053</v>
       </c>
       <c r="K30" t="n">
-        <v>0.000374978253079178</v>
+        <v>0.0001152929336444951</v>
       </c>
       <c r="L30" t="n">
-        <v>0.004489795918367347</v>
+        <v>0.01650793650793651</v>
       </c>
       <c r="M30" t="n">
-        <v>22.2000732421875</v>
+        <v>29.681640625</v>
       </c>
       <c r="N30" t="n">
-        <v>73.48509442051802</v>
+        <v>23.42245472006664</v>
       </c>
       <c r="O30" t="n">
-        <v>9.288702845355572e-11</v>
+        <v>3.539291193544394e-11</v>
       </c>
       <c r="P30" t="n">
-        <v>4954.788686667887</v>
+        <v>1793.19663419541</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Owl</t>
+          <t>Anole</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2092,53 +2092,53 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>owl_TAG4learSOAEwf1.mat</t>
+          <t>ACsb30learSOAEwfA2.mat</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5768.206787109375</v>
+        <v>2139.862060546875</v>
       </c>
       <c r="E31" t="n">
-        <v>31.92543080459712</v>
+        <v>7.383225339650395</v>
       </c>
       <c r="F31" t="n">
-        <v>2.402161376318801</v>
+        <v>0.3977289205921791</v>
       </c>
       <c r="G31" t="n">
-        <v>0.005534723698870014</v>
+        <v>0.003450327699049675</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0004164485541134001</v>
+        <v>0.0001858666163231724</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8224411756415669</v>
+        <v>1.418070862340206</v>
       </c>
       <c r="J31" t="n">
-        <v>0.04763836043567797</v>
+        <v>0.06976038352038443</v>
       </c>
       <c r="K31" t="n">
-        <v>0.003106225350922567</v>
+        <v>0.001307088889552022</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01501133786848073</v>
+        <v>0.008004535147392289</v>
       </c>
       <c r="M31" t="n">
-        <v>86.5885009765625</v>
+        <v>17.12860107421875</v>
       </c>
       <c r="N31" t="n">
-        <v>26.50530117044341</v>
+        <v>41.13536799564929</v>
       </c>
       <c r="O31" t="n">
-        <v>4.067304936525313e-10</v>
+        <v>7.102693742763213e-12</v>
       </c>
       <c r="P31" t="n">
-        <v>5766.3279789766</v>
+        <v>2141.206698806877</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Owl</t>
+          <t>Anole</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2146,53 +2146,53 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>owl_TAG4learSOAEwf1.mat</t>
+          <t>ACsb30learSOAEwfA2.mat</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>7184.014892578125</v>
+        <v>2417.10205078125</v>
       </c>
       <c r="E32" t="n">
-        <v>236.2795024146108</v>
+        <v>7.685360244948903</v>
       </c>
       <c r="F32" t="n">
-        <v>2.40489004794071</v>
+        <v>0.4288062054925163</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03288961756729004</v>
+        <v>0.003179576237778152</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0003347557158358936</v>
+        <v>0.0001774050894350607</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9717468225374449</v>
+        <v>1.44421366723964</v>
       </c>
       <c r="J32" t="n">
-        <v>0.006551192460712446</v>
+        <v>0.07587432245996721</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0004427735154623166</v>
+        <v>0.00123986853948281</v>
       </c>
       <c r="L32" t="n">
-        <v>0.06448979591836734</v>
+        <v>0.007505668934240363</v>
       </c>
       <c r="M32" t="n">
-        <v>463.295654296875</v>
+        <v>18.1419677734375</v>
       </c>
       <c r="N32" t="n">
-        <v>5.56825361287411</v>
+        <v>42.50273593021302</v>
       </c>
       <c r="O32" t="n">
-        <v>1.100894634208016e-08</v>
+        <v>5.782920652556695e-12</v>
       </c>
       <c r="P32" t="n">
-        <v>7182.023695604765</v>
+        <v>2413.916814391103</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Owl</t>
+          <t>Anole</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2200,53 +2200,53 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>owl_TAG4learSOAEwf1.mat</t>
+          <t>ACsb30learSOAEwfA2.mat</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>9633.416748046875</v>
+        <v>2783.16650390625</v>
       </c>
       <c r="E33" t="n">
-        <v>135.779151684903</v>
+        <v>222580056.6111855</v>
       </c>
       <c r="F33" t="n">
-        <v>1.304228554709577</v>
+        <v>212851825869879.1</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01409459958352072</v>
+        <v>79973.67613428384</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0001353858748998897</v>
+        <v>76478293904.13248</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9042606428263641</v>
+        <v>0.01931650088908909</v>
       </c>
       <c r="J33" t="n">
-        <v>0.00619267527097353</v>
+        <v>0.004113185546243618</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0001631920864378598</v>
+        <v>2.729313132736339e-05</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03299319727891156</v>
+        <v>0.02498866213151927</v>
       </c>
       <c r="M33" t="n">
-        <v>317.8372192382812</v>
+        <v>69.547607421875</v>
       </c>
       <c r="N33" t="n">
-        <v>11.84121353021598</v>
+        <v>46.28212381639919</v>
       </c>
       <c r="O33" t="n">
-        <v>3.857816204061241e-09</v>
+        <v>7.179066528684823e-12</v>
       </c>
       <c r="P33" t="n">
-        <v>9634.434320710956</v>
+        <v>2784.485016813617</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tokay</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2254,53 +2254,53 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>tokay_GG1rearSOAEwf.mat</t>
+          <t>Owl2R1.mat</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1184.326171875</v>
+        <v>4350.5859375</v>
       </c>
       <c r="E34" t="n">
-        <v>4.066426681429568</v>
+        <v>6.200537234175052</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1666076942897733</v>
+        <v>0.503620119972046</v>
       </c>
       <c r="G34" t="n">
-        <v>0.003433536113612762</v>
+        <v>0.001425218883904658</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0001406772038365103</v>
+        <v>0.000115759147665853</v>
       </c>
       <c r="I34" t="n">
-        <v>1.382670137950124</v>
+        <v>1.556984711577556</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0526989927911052</v>
+        <v>0.1342492179820402</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0007847125966339889</v>
+        <v>0.0006445582041643389</v>
       </c>
       <c r="L34" t="n">
-        <v>0.008503401360544218</v>
+        <v>0.0035</v>
       </c>
       <c r="M34" t="n">
-        <v>10.07080078125</v>
+        <v>15.22705078125</v>
       </c>
       <c r="N34" t="n">
-        <v>40.87656764698772</v>
+        <v>88.04686450596937</v>
       </c>
       <c r="O34" t="n">
-        <v>7.124994432653203e-11</v>
+        <v>3.597180564459571e-13</v>
       </c>
       <c r="P34" t="n">
-        <v>1186.101466489188</v>
+        <v>4346.828152195468</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tokay</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2308,53 +2308,53 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>tokay_GG1rearSOAEwf.mat</t>
+          <t>Owl2R1.mat</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1569.232177734375</v>
+        <v>7453.125</v>
       </c>
       <c r="E35" t="n">
-        <v>7.468707405771641</v>
+        <v>13.52609931227873</v>
       </c>
       <c r="F35" t="n">
-        <v>0.175341875090673</v>
+        <v>0.3830227078285064</v>
       </c>
       <c r="G35" t="n">
-        <v>0.004759466133657039</v>
+        <v>0.001814822549236559</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0001117373691277654</v>
+        <v>5.139088742353127e-05</v>
       </c>
       <c r="I35" t="n">
-        <v>1.20021235324524</v>
+        <v>1.387782360319679</v>
       </c>
       <c r="J35" t="n">
-        <v>0.02479908046194416</v>
+        <v>0.03911632563287751</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0004351454188922561</v>
+        <v>0.0001643147067307164</v>
       </c>
       <c r="L35" t="n">
-        <v>0.01399092970521542</v>
+        <v>0.005</v>
       </c>
       <c r="M35" t="n">
-        <v>21.95501708984375</v>
+        <v>37.265625</v>
       </c>
       <c r="N35" t="n">
-        <v>28.46432145881039</v>
+        <v>67.85515544987975</v>
       </c>
       <c r="O35" t="n">
-        <v>1.043080474554221e-10</v>
+        <v>1.26189758663374e-12</v>
       </c>
       <c r="P35" t="n">
-        <v>1571.96822358038</v>
+        <v>7456.96221043282</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Tokay</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2362,53 +2362,53 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>tokay_GG1rearSOAEwf.mat</t>
+          <t>Owl2R1.mat</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3216.522216796875</v>
+        <v>8452.1484375</v>
       </c>
       <c r="E36" t="n">
-        <v>11.51458166981638</v>
+        <v>17.85863955129348</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3771963146706802</v>
+        <v>0.7019742548644242</v>
       </c>
       <c r="G36" t="n">
-        <v>0.00357982345332065</v>
+        <v>0.002112911253671233</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0001172683691413472</v>
+        <v>8.30527599053923e-05</v>
       </c>
       <c r="I36" t="n">
-        <v>1.383035846522068</v>
+        <v>1.370490614141937</v>
       </c>
       <c r="J36" t="n">
-        <v>0.04176629588468012</v>
+        <v>0.05037830177731586</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0005603545931737741</v>
+        <v>0.0004109910990382773</v>
       </c>
       <c r="L36" t="n">
-        <v>0.009002267573696146</v>
+        <v>0.0055</v>
       </c>
       <c r="M36" t="n">
-        <v>28.95599365234375</v>
+        <v>46.48681640625</v>
       </c>
       <c r="N36" t="n">
-        <v>37.56961413562817</v>
+        <v>60.03149730150874</v>
       </c>
       <c r="O36" t="n">
-        <v>3.955018022464138e-11</v>
+        <v>3.555192550123271e-12</v>
       </c>
       <c r="P36" t="n">
-        <v>3212.920758730747</v>
+        <v>8444.898188380446</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Tokay</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2416,53 +2416,53 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>tokay_GG1rearSOAEwf.mat</t>
+          <t>Owl2R1.mat</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3714.4775390625</v>
+        <v>9026.3671875</v>
       </c>
       <c r="E37" t="n">
-        <v>28.11450857415061</v>
+        <v>25.26965690636864</v>
       </c>
       <c r="F37" t="n">
-        <v>1.112936763816881</v>
+        <v>0.4451316147322679</v>
       </c>
       <c r="G37" t="n">
-        <v>0.007568899873128982</v>
+        <v>0.002799537885115383</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0002996213470435404</v>
+        <v>4.931459195995264e-05</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9923373566506983</v>
+        <v>1.21040516136573</v>
       </c>
       <c r="J37" t="n">
-        <v>0.03299954958665205</v>
+        <v>0.01878987637047191</v>
       </c>
       <c r="K37" t="n">
-        <v>0.001380224006381478</v>
+        <v>0.0001291071634474768</v>
       </c>
       <c r="L37" t="n">
-        <v>0.02</v>
+        <v>0.008</v>
       </c>
       <c r="M37" t="n">
-        <v>74.28955078125</v>
+        <v>72.2109375</v>
       </c>
       <c r="N37" t="n">
-        <v>22.43045222292099</v>
+        <v>48.1155010115467</v>
       </c>
       <c r="O37" t="n">
-        <v>4.716267156019043e-11</v>
+        <v>4.091123796662425e-12</v>
       </c>
       <c r="P37" t="n">
-        <v>3713.405684301594</v>
+        <v>9030.619519845581</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Tokay</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2470,53 +2470,53 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>tokay_GG2rearSOAEwf.mat</t>
+          <t>Owl7L1.mat</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1192.401123046875</v>
+        <v>6837.890625</v>
       </c>
       <c r="E38" t="n">
-        <v>3.787510986283712</v>
+        <v>10.5977698983937</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1737473961523281</v>
+        <v>0.6331896030148532</v>
       </c>
       <c r="G38" t="n">
-        <v>0.003176373212904815</v>
+        <v>0.00154985952241576</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0001457122043866926</v>
+        <v>9.260013617355179e-05</v>
       </c>
       <c r="I38" t="n">
-        <v>1.427401590077962</v>
+        <v>1.489588780119523</v>
       </c>
       <c r="J38" t="n">
-        <v>0.06169335277108672</v>
+        <v>0.09255996511278757</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0008181467151198045</v>
+        <v>0.0004790623519389627</v>
       </c>
       <c r="L38" t="n">
-        <v>0.007505668934240363</v>
+        <v>0.004</v>
       </c>
       <c r="M38" t="n">
-        <v>8.94976806640625</v>
+        <v>27.3515625</v>
       </c>
       <c r="N38" t="n">
-        <v>41.16860726104396</v>
+        <v>77.00428622253314</v>
       </c>
       <c r="O38" t="n">
-        <v>3.856084967509068e-11</v>
+        <v>7.722440708880625e-13</v>
       </c>
       <c r="P38" t="n">
-        <v>1195.962898539642</v>
+        <v>6840.659444440797</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Tokay</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2524,53 +2524,53 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>tokay_GG2rearSOAEwf.mat</t>
+          <t>Owl7L1.mat</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1566.54052734375</v>
+        <v>7901.3671875</v>
       </c>
       <c r="E39" t="n">
-        <v>5.196327560235447</v>
+        <v>19.12436303910451</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1718356907866446</v>
+        <v>1.032548472683028</v>
       </c>
       <c r="G39" t="n">
-        <v>0.003317071897939608</v>
+        <v>0.002420386571751701</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0001096911875481522</v>
+        <v>0.0001306797226581906</v>
       </c>
       <c r="I39" t="n">
-        <v>1.385906700115541</v>
+        <v>1.174421851631025</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0434468213876596</v>
+        <v>0.05926269821551847</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0004994784836145919</v>
+        <v>0.0009800467979355896</v>
       </c>
       <c r="L39" t="n">
-        <v>0.008503401360544218</v>
+        <v>0.008</v>
       </c>
       <c r="M39" t="n">
-        <v>13.3209228515625</v>
+        <v>63.2109375</v>
       </c>
       <c r="N39" t="n">
-        <v>39.21651930697781</v>
+        <v>51.67437961669827</v>
       </c>
       <c r="O39" t="n">
-        <v>4.689226787662852e-11</v>
+        <v>1.393890798981966e-12</v>
       </c>
       <c r="P39" t="n">
-        <v>1567.157865103854</v>
+        <v>7901.211008017457</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Tokay</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2578,53 +2578,53 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>tokay_GG2rearSOAEwf.mat</t>
+          <t>Owl7L1.mat</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3181.53076171875</v>
+        <v>8835.9375</v>
       </c>
       <c r="E40" t="n">
-        <v>19.05568374023134</v>
+        <v>22.98015480698477</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3879992928573586</v>
+        <v>0.678522834599649</v>
       </c>
       <c r="G40" t="n">
-        <v>0.005989470216512048</v>
+        <v>0.002600760225724183</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0001219536512190599</v>
+        <v>7.679126686892579e-05</v>
       </c>
       <c r="I40" t="n">
-        <v>1.192283810816991</v>
+        <v>1.215681358694547</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0218358868838445</v>
+        <v>0.0326037303704333</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0003781727221567353</v>
+        <v>0.0003405400154561213</v>
       </c>
       <c r="L40" t="n">
-        <v>0.01700680272108844</v>
+        <v>0.008</v>
       </c>
       <c r="M40" t="n">
-        <v>54.10766601562501</v>
+        <v>70.6875</v>
       </c>
       <c r="N40" t="n">
-        <v>23.2908207663163</v>
+        <v>49.4686715984015</v>
       </c>
       <c r="O40" t="n">
-        <v>8.636897388349635e-11</v>
+        <v>2.577618012957903e-12</v>
       </c>
       <c r="P40" t="n">
-        <v>3179.228160080623</v>
+        <v>8845.345193607762</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Tokay</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2632,53 +2632,53 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>tokay_GG2rearSOAEwf.mat</t>
+          <t>Owl7L1.mat</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3875.9765625</v>
+        <v>9257.8125</v>
       </c>
       <c r="E41" t="n">
-        <v>13.68062011992751</v>
+        <v>57.96893269989882</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5608195517029959</v>
+        <v>6.118874950467526</v>
       </c>
       <c r="G41" t="n">
-        <v>0.003529593097204779</v>
+        <v>0.006261623110200042</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0001446911617394477</v>
+        <v>0.0006609417668015556</v>
       </c>
       <c r="I41" t="n">
-        <v>1.393161916120194</v>
+        <v>0.06859142883780221</v>
       </c>
       <c r="J41" t="n">
-        <v>0.05232027201244561</v>
+        <v>0.009411778969351539</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0008138458665125144</v>
+        <v>6.093241765296857e-06</v>
       </c>
       <c r="L41" t="n">
-        <v>0.008503401360544218</v>
+        <v>0.0145</v>
       </c>
       <c r="M41" t="n">
-        <v>32.958984375</v>
+        <v>134.23828125</v>
       </c>
       <c r="N41" t="n">
-        <v>37.671296447855</v>
+        <v>89.47811797763433</v>
       </c>
       <c r="O41" t="n">
-        <v>2.23437030019673e-11</v>
+        <v>1.537070170817859e-12</v>
       </c>
       <c r="P41" t="n">
-        <v>3871.939805582818</v>
+        <v>9253.719655990404</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Tokay</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2686,53 +2686,53 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>tokay_GG3rearSOAEwf.mat</t>
+          <t>TAG6rearSOAEwf1.mat</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1108.9599609375</v>
+        <v>5625.54931640625</v>
       </c>
       <c r="E42" t="n">
-        <v>5.866201824798462</v>
+        <v>13.7025908628672</v>
       </c>
       <c r="F42" t="n">
-        <v>0.212331385915169</v>
+        <v>1.23349974496892</v>
       </c>
       <c r="G42" t="n">
-        <v>0.005289822925472668</v>
+        <v>0.002435778284425524</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0001914689379187927</v>
+        <v>0.0002192674307149995</v>
       </c>
       <c r="I42" t="n">
-        <v>1.122747700293536</v>
+        <v>1.123193040757176</v>
       </c>
       <c r="J42" t="n">
-        <v>0.03532329631684365</v>
+        <v>0.09542756147256611</v>
       </c>
       <c r="K42" t="n">
-        <v>0.001142216441490784</v>
+        <v>0.002768955551456496</v>
       </c>
       <c r="L42" t="n">
-        <v>0.01700680272108844</v>
+        <v>0.009501133786848073</v>
       </c>
       <c r="M42" t="n">
-        <v>18.85986328125</v>
+        <v>53.4490966796875</v>
       </c>
       <c r="N42" t="n">
-        <v>25.59727509177222</v>
+        <v>55.63156172241037</v>
       </c>
       <c r="O42" t="n">
-        <v>5.925850193307297e-11</v>
+        <v>1.588033309690506e-10</v>
       </c>
       <c r="P42" t="n">
-        <v>1108.587215526149</v>
+        <v>5623.301707548723</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Tokay</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2740,53 +2740,53 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>tokay_GG3rearSOAEwf.mat</t>
+          <t>TAG6rearSOAEwf1.mat</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1620.37353515625</v>
+        <v>8096.484375</v>
       </c>
       <c r="E43" t="n">
-        <v>4.784321307152795</v>
+        <v>16.61126643733448</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2735778863123555</v>
+        <v>0.3634184788855256</v>
       </c>
       <c r="G43" t="n">
-        <v>0.002952603954181127</v>
+        <v>0.002051664113454734</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0001688363086514955</v>
+        <v>4.488596062850125e-05</v>
       </c>
       <c r="I43" t="n">
-        <v>1.472483971230611</v>
+        <v>1.326748703747682</v>
       </c>
       <c r="J43" t="n">
-        <v>0.08139662186483775</v>
+        <v>0.0279915396108054</v>
       </c>
       <c r="K43" t="n">
-        <v>0.001141705377428252</v>
+        <v>0.0001302866375262261</v>
       </c>
       <c r="L43" t="n">
-        <v>0.007006802721088435</v>
+        <v>0.00600907029478458</v>
       </c>
       <c r="M43" t="n">
-        <v>11.3536376953125</v>
+        <v>48.65234375</v>
       </c>
       <c r="N43" t="n">
-        <v>44.16872321913699</v>
+        <v>58.59552907829816</v>
       </c>
       <c r="O43" t="n">
-        <v>3.642685805057857e-11</v>
+        <v>2.598374680921007e-10</v>
       </c>
       <c r="P43" t="n">
-        <v>1622.037948405705</v>
+        <v>8098.389244124367</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Tokay</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2794,53 +2794,53 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>tokay_GG3rearSOAEwf.mat</t>
+          <t>TAG6rearSOAEwf1.mat</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2277.13623046875</v>
+        <v>8489.46533203125</v>
       </c>
       <c r="E44" t="n">
-        <v>7.095724450948193</v>
+        <v>54.8932366315176</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3566449185857427</v>
+        <v>2.019460731392774</v>
       </c>
       <c r="G44" t="n">
-        <v>0.003116073757909308</v>
+        <v>0.006466041674544828</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0001566199306891389</v>
+        <v>0.0002378784354973723</v>
       </c>
       <c r="I44" t="n">
-        <v>1.439634227684826</v>
+        <v>0.842857790203811</v>
       </c>
       <c r="J44" t="n">
-        <v>0.06895529418195143</v>
+        <v>0.02437092987453587</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0009851765615825926</v>
+        <v>0.0006957767539891147</v>
       </c>
       <c r="L44" t="n">
-        <v>0.007505668934240363</v>
+        <v>0.01501133786848073</v>
       </c>
       <c r="M44" t="n">
-        <v>17.0914306640625</v>
+        <v>127.438232421875</v>
       </c>
       <c r="N44" t="n">
-        <v>41.83458061409961</v>
+        <v>24.65121885617466</v>
       </c>
       <c r="O44" t="n">
-        <v>1.998741572025862e-11</v>
+        <v>7.426545525735238e-10</v>
       </c>
       <c r="P44" t="n">
-        <v>2269.833595684314</v>
+        <v>8486.990976232802</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Tokay</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2848,53 +2848,53 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>tokay_GG3rearSOAEwf.mat</t>
+          <t>TAG6rearSOAEwf1.mat</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3133.0810546875</v>
+        <v>9864.898681640625</v>
       </c>
       <c r="E45" t="n">
-        <v>16.98417101375922</v>
+        <v>17.55744318502499</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2890435579159215</v>
+        <v>0.7706878262572214</v>
       </c>
       <c r="G45" t="n">
-        <v>0.00542091657295258</v>
+        <v>0.001779789509414913</v>
       </c>
       <c r="H45" t="n">
-        <v>9.225537190730334e-05</v>
+        <v>7.812425156393484e-05</v>
       </c>
       <c r="I45" t="n">
-        <v>1.187224141441917</v>
+        <v>1.430540075178475</v>
       </c>
       <c r="J45" t="n">
-        <v>0.01859185379681836</v>
+        <v>0.06310040276667497</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0002138975092159143</v>
+        <v>0.0004119904486747436</v>
       </c>
       <c r="L45" t="n">
-        <v>0.01501133786848073</v>
+        <v>0.005011337868480726</v>
       </c>
       <c r="M45" t="n">
-        <v>47.03173828125</v>
+        <v>49.43634033203125</v>
       </c>
       <c r="N45" t="n">
-        <v>26.60593998790415</v>
+        <v>64.04212616111205</v>
       </c>
       <c r="O45" t="n">
-        <v>3.999650780240044e-11</v>
+        <v>1.931726648220092e-10</v>
       </c>
       <c r="P45" t="n">
-        <v>3137.366405998004</v>
+        <v>9857.012236195154</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Tokay</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2902,53 +2902,53 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>tokay_GG4rearSOAEwf.mat</t>
+          <t>owl_TAG4learSOAEwf1.mat</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1103.57666015625</v>
+        <v>4944.561767578125</v>
       </c>
       <c r="E46" t="n">
-        <v>6.807037105600331</v>
+        <v>7.915838219591966</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3197629053582159</v>
+        <v>0.3683099505358468</v>
       </c>
       <c r="G46" t="n">
-        <v>0.006168159722258494</v>
+        <v>0.001600918057389177</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0002897514209053155</v>
+        <v>7.448788544838973e-05</v>
       </c>
       <c r="I46" t="n">
-        <v>1.04924546058044</v>
+        <v>1.484261017007512</v>
       </c>
       <c r="J46" t="n">
-        <v>0.04452950820458492</v>
+        <v>0.07218371225140059</v>
       </c>
       <c r="K46" t="n">
-        <v>0.001742847342414955</v>
+        <v>0.000374978253079178</v>
       </c>
       <c r="L46" t="n">
-        <v>0.01900226757369615</v>
+        <v>0.004489795918367347</v>
       </c>
       <c r="M46" t="n">
-        <v>20.970458984375</v>
+        <v>22.2000732421875</v>
       </c>
       <c r="N46" t="n">
-        <v>23.38954382203271</v>
+        <v>73.48509442051802</v>
       </c>
       <c r="O46" t="n">
-        <v>8.562628985090721e-11</v>
+        <v>9.288702845355572e-11</v>
       </c>
       <c r="P46" t="n">
-        <v>1103.729808513525</v>
+        <v>4954.788686667887</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Tokay</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2956,53 +2956,53 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>tokay_GG4rearSOAEwf.mat</t>
+          <t>owl_TAG4learSOAEwf1.mat</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2287.90283203125</v>
+        <v>5768.206787109375</v>
       </c>
       <c r="E47" t="n">
-        <v>10.21203667284284</v>
+        <v>31.92543080459712</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1648132809324268</v>
+        <v>2.402161376318801</v>
       </c>
       <c r="G47" t="n">
-        <v>0.004463492299529335</v>
+        <v>0.005534723698870014</v>
       </c>
       <c r="H47" t="n">
-        <v>7.203683592895504e-05</v>
+        <v>0.0004164485541134001</v>
       </c>
       <c r="I47" t="n">
-        <v>1.262638358492742</v>
+        <v>0.8224411756415669</v>
       </c>
       <c r="J47" t="n">
-        <v>0.01807288849913696</v>
+        <v>0.04763836043567797</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0001953424136750183</v>
+        <v>0.003106225350922567</v>
       </c>
       <c r="L47" t="n">
-        <v>0.01249433106575964</v>
+        <v>0.01501133786848073</v>
       </c>
       <c r="M47" t="n">
-        <v>28.5858154296875</v>
+        <v>86.5885009765625</v>
       </c>
       <c r="N47" t="n">
-        <v>29.43845919004642</v>
+        <v>26.50530117044341</v>
       </c>
       <c r="O47" t="n">
-        <v>4.615566910914475e-11</v>
+        <v>4.067304936525313e-10</v>
       </c>
       <c r="P47" t="n">
-        <v>2286.484064108712</v>
+        <v>5766.3279789766</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Tokay</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3010,53 +3010,53 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>tokay_GG4rearSOAEwf.mat</t>
+          <t>owl_TAG4learSOAEwf1.mat</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2845.074462890625</v>
+        <v>7184.014892578125</v>
       </c>
       <c r="E48" t="n">
-        <v>9.011895524024931</v>
+        <v>236.2795024146108</v>
       </c>
       <c r="F48" t="n">
-        <v>0.4257781579669345</v>
+        <v>2.40489004794071</v>
       </c>
       <c r="G48" t="n">
-        <v>0.003167542938355558</v>
+        <v>0.03288961756729004</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0001496544865593217</v>
+        <v>0.0003347557158358936</v>
       </c>
       <c r="I48" t="n">
-        <v>1.454572555119908</v>
+        <v>0.9717468225374449</v>
       </c>
       <c r="J48" t="n">
-        <v>0.06591257059197261</v>
+        <v>0.006551192460712446</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0009931210271726441</v>
+        <v>0.0004427735154623166</v>
       </c>
       <c r="L48" t="n">
-        <v>0.008004535147392289</v>
+        <v>0.06448979591836734</v>
       </c>
       <c r="M48" t="n">
-        <v>22.77349853515625</v>
+        <v>463.295654296875</v>
       </c>
       <c r="N48" t="n">
-        <v>40.81672479913584</v>
+        <v>5.56825361287411</v>
       </c>
       <c r="O48" t="n">
-        <v>1.266305311143165e-11</v>
+        <v>1.100894634208016e-08</v>
       </c>
       <c r="P48" t="n">
-        <v>2843.573818392875</v>
+        <v>7182.023695604765</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Tokay</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3064,47 +3064,47 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>tokay_GG4rearSOAEwf.mat</t>
+          <t>owl_TAG4learSOAEwf1.mat</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3157.305908203125</v>
+        <v>9633.416748046875</v>
       </c>
       <c r="E49" t="n">
-        <v>13.08060940416884</v>
+        <v>135.779151684903</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3597918197625645</v>
+        <v>1.304228554709577</v>
       </c>
       <c r="G49" t="n">
-        <v>0.004142965485284014</v>
+        <v>0.01409459958352072</v>
       </c>
       <c r="H49" t="n">
-        <v>0.000113955324641738</v>
+        <v>0.0001353858748998897</v>
       </c>
       <c r="I49" t="n">
-        <v>1.339518470948307</v>
+        <v>0.9042606428263641</v>
       </c>
       <c r="J49" t="n">
-        <v>0.03297954877014906</v>
+        <v>0.00619267527097353</v>
       </c>
       <c r="K49" t="n">
-        <v>0.0005286854012564519</v>
+        <v>0.0001631920864378598</v>
       </c>
       <c r="L49" t="n">
-        <v>0.01099773242630385</v>
+        <v>0.03299319727891156</v>
       </c>
       <c r="M49" t="n">
-        <v>34.72320556640625</v>
+        <v>317.8372192382812</v>
       </c>
       <c r="N49" t="n">
-        <v>31.76238345852889</v>
+        <v>11.84121353021598</v>
       </c>
       <c r="O49" t="n">
-        <v>4.316985815728236e-11</v>
+        <v>3.857816204061241e-09</v>
       </c>
       <c r="P49" t="n">
-        <v>3160.279555119416</v>
+        <v>9634.434320710956</v>
       </c>
     </row>
     <row r="50">
